--- a/clases/Cap03_Mejoramiento_Espacio/presentations/IMG03_imagen_4x6.xlsx
+++ b/clases/Cap03_Mejoramiento_Espacio/presentations/IMG03_imagen_4x6.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domingomery/Dropbox/Master/Git/GitN/imagenes/clases/Cap03_Mejoramiento_Espacio/presentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domingomery/Dropbox/Master/Git/GitA/imagenes/clases/Cap03_Mejoramiento_Espacio/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CBF2B-77FF-714A-9ADE-125407C7601E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD6048-9F6C-F543-8BD3-6B513928011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7FA845EB-6C40-7E49-8E16-B142D0CB2352}"/>
+    <workbookView xWindow="1360" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{7FA845EB-6C40-7E49-8E16-B142D0CB2352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,15 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ORIGINAL</t>
+    <t>RELLENAR PARA INTERPOLAR</t>
   </si>
   <si>
-    <t>MASCARA 3x3</t>
+    <t>INPUT</t>
   </si>
   <si>
-    <t>RELLENAR PARA INTERPOLAR</t>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>(mask 3x3)</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -64,15 +67,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,19 +95,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,144 +446,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7BF369-7D54-D642-8A8D-3B3807C32886}">
-  <dimension ref="A3:H13"/>
+  <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="7" width="5.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
-        <f>AVERAGE(B4:D6)</f>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="D12" s="2">
-        <f>AVERAGE(C4:E6)</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="E12" s="2">
-        <f>AVERAGE(D4:F6)</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
-        <f>AVERAGE(E4:G6)</f>
-        <v>6.2222222222222223</v>
-      </c>
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="2">
-        <f>AVERAGE(B5:D7)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="C13:F13" si="0">AVERAGE(C5:E7)</f>
-        <v>6.5555555555555554</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE(D5:F7)</f>
-        <v>7.2222222222222223</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7777777777777777</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7833D0-AA8E-504A-95AB-E0660C07606C}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +605,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
